--- a/_Out/Server/NFDataCfg/Excel_Ini/BB_Player.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/BB_Player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB_Player1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,8 +173,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H28" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:H28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H2" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:H2"/>
   <tableColumns count="8">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
@@ -456,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="A2:I28"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -500,139 +512,30 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
